--- a/data/trans_camb/P2A_ner_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.903899866719808</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.3912321972170049</v>
+        <v>-0.3912321972170035</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.1031870961079012</v>
@@ -655,7 +655,7 @@
         <v>9.713533595583913</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-3.924151572523272</v>
+        <v>-3.924151572523273</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.1019640550302105</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.05994567709485</v>
+        <v>-3.273183090669399</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3320064077443505</v>
+        <v>0.2768834965905355</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.556887250110458</v>
+        <v>-3.714676202392931</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.479504727203058</v>
+        <v>-4.14738182746156</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.609822184880272</v>
+        <v>4.403492594871151</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.614112792086028</v>
+        <v>-8.021510512390343</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.797047194562299</v>
+        <v>-2.645821073782959</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.470467094748953</v>
+        <v>3.344859456924761</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.622665287362639</v>
+        <v>-4.499615221723794</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.944763945575946</v>
+        <v>2.864845260606333</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.913075123634036</v>
+        <v>7.580413549891688</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.266094480153112</v>
+        <v>2.483982946381249</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.127465318951798</v>
+        <v>4.391002187451075</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.20190743268982</v>
+        <v>15.46022114623874</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.048734772346716</v>
+        <v>-0.9702504575754627</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.156233572632424</v>
+        <v>2.273663272521495</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.34900798347926</v>
+        <v>9.817291103041734</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.04541168815234154</v>
+        <v>-0.2170887440616984</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>1.088450453679334</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1090798629813768</v>
+        <v>-0.1090798629813764</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.01602369091806844</v>
@@ -760,7 +760,7 @@
         <v>1.508392676300855</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.6093726278333592</v>
+        <v>-0.6093726278333593</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.02047210413353343</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6227499343262431</v>
+        <v>-0.6310024005035633</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03139710654493137</v>
+        <v>-0.09768336927863334</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6498464951707045</v>
+        <v>-0.6905427261919729</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5229571302573787</v>
+        <v>-0.5069455070951072</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4829190002185491</v>
+        <v>0.4280683536774615</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8151483919518441</v>
+        <v>-0.8228545834588809</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4409403683392464</v>
+        <v>-0.4191093317136002</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5097474831707636</v>
+        <v>0.5168649307735474</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6925816389926677</v>
+        <v>-0.667065730291048</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.586674867034226</v>
+        <v>1.424738554107533</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.904028408507265</v>
+        <v>3.416475626312689</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.31607985674939</v>
+        <v>1.271565667936161</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9832759710656839</v>
+        <v>1.052603757803315</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.714854541597975</v>
+        <v>3.628844222261855</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1815468806491893</v>
+        <v>-0.1650212073538853</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5785199119798661</v>
+        <v>0.647560188339443</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.758133857738426</v>
+        <v>2.770651450763034</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.01856907188194053</v>
+        <v>-0.01384381826506624</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>2.066928720877395</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.5259563236868146</v>
+        <v>-0.5259563236868152</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.054185388083766</v>
+        <v>-3.130454000600074</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.627267445167292</v>
+        <v>-2.901578945381168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.457181337622601</v>
+        <v>-3.604638518910667</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.732301318782884</v>
+        <v>-2.719390929447949</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9252128788424077</v>
+        <v>0.8958808997910095</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.589428090893571</v>
+        <v>-2.306625130118448</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.094145387153465</v>
+        <v>-2.048715087873771</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.001718928928111862</v>
+        <v>0.00618063670615842</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.456660077515042</v>
+        <v>-2.350841090044182</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.008508931871294</v>
+        <v>1.578223514505364</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.174835343327347</v>
+        <v>1.853824331369613</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9364895474673179</v>
+        <v>0.9355464101982637</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.532905181642999</v>
+        <v>3.238127960090337</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.767056646298973</v>
+        <v>7.801203035059892</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.904832294768759</v>
+        <v>2.784534024476438</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.730339740152688</v>
+        <v>1.757030981683476</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.168708280390863</v>
+        <v>4.228086264184736</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.022564005744162</v>
+        <v>1.154253224168707</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.4377753205049095</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1113975028978453</v>
+        <v>-0.1113975028978454</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6281402415355526</v>
+        <v>-0.6403273957000039</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5284646667744868</v>
+        <v>-0.5647014095138182</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6997058019002836</v>
+        <v>-0.7083507774741965</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3907432973278968</v>
+        <v>-0.3877628687437011</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1088763004476459</v>
+        <v>0.1163911644718516</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.353678981995912</v>
+        <v>-0.3297622634181261</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.368656453662231</v>
+        <v>-0.3725514634849897</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01298001576570784</v>
+        <v>-0.004552077034520665</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4301607258699555</v>
+        <v>-0.4022674866422186</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9343636460859189</v>
+        <v>0.6375321215805724</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9105380633693095</v>
+        <v>0.7538305644619102</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3801794567828936</v>
+        <v>0.4261806499480392</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8554546629352672</v>
+        <v>0.7902799747513961</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.794670499644517</v>
+        <v>1.882927252317556</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7116745972317912</v>
+        <v>0.6934521308543735</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4668559114948716</v>
+        <v>0.4562508183515589</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.071946001111849</v>
+        <v>1.135265169168492</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2718006905059887</v>
+        <v>0.3101330734949322</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.549145579796178</v>
+        <v>0.5931480694049243</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3073951721399131</v>
+        <v>0.3082955399161989</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.284068757639155</v>
+        <v>1.297752857344697</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7688194308341955</v>
+        <v>-0.5769616248512739</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.395037950698751</v>
+        <v>5.48464632649424</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.220861153985386</v>
+        <v>2.365576680706458</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4247111047555664</v>
+        <v>0.4182340821120689</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.38465138016157</v>
+        <v>3.359753805043006</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.347413290872209</v>
+        <v>2.309205444184956</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.087523928401799</v>
+        <v>4.321891685220318</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.609166806209597</v>
+        <v>3.701657593873723</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.944886361448706</v>
+        <v>5.816834215408608</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.808132988688369</v>
+        <v>2.865719537880365</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.21241423387529</v>
+        <v>12.25919473907232</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.443427184342711</v>
+        <v>6.72491441441683</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.730049555849536</v>
+        <v>2.82805660746281</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.018899857477471</v>
+        <v>7.156817143085756</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.414088915201864</v>
+        <v>5.246521307771896</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>8.565987660666254</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>6.274163497992464</v>
+        <v>6.274163497992462</v>
       </c>
     </row>
     <row r="20">
@@ -1211,22 +1211,22 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.6225992871224859</v>
+        <v>-0.6640705709317809</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>2.553031079092634</v>
+        <v>2.318934900452117</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9463231665277306</v>
+        <v>0.8730274101449313</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1452510026166669</v>
+        <v>0.1789197213375646</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>2.446981267681265</v>
+        <v>2.392193761998069</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.569290284777727</v>
+        <v>1.879113353274977</v>
       </c>
     </row>
     <row r="21">
@@ -1239,23 +1239,21 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
-      <c r="F21" s="6" t="n">
-        <v>9.222414333933914</v>
-      </c>
+      <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>39.89450638120164</v>
+        <v>39.48902680538622</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>22.22141661909456</v>
+        <v>21.82823898218239</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>12.90233073695989</v>
+        <v>14.37201582210429</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>35.46089223119109</v>
+        <v>35.85096506757878</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>27.35015048059919</v>
+        <v>30.31882581698438</v>
       </c>
     </row>
     <row r="22">
@@ -1285,7 +1283,7 @@
         <v>4.490137343073411</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.3509014449941658</v>
+        <v>0.3509014449941665</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.617136090855971</v>
@@ -1294,7 +1292,7 @@
         <v>3.645855205005546</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.790623733463633</v>
+        <v>1.790623733463632</v>
       </c>
     </row>
     <row r="23">
@@ -1305,31 +1303,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.648194744170085</v>
+        <v>-1.729705479178143</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4093312245520317</v>
+        <v>0.1711821968736346</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6303167485627449</v>
+        <v>0.5239200262113796</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.3569969380081</v>
+        <v>1.269558065775009</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.208723598480982</v>
+        <v>1.261764018277028</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.365743873693449</v>
+        <v>-2.529089093025826</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6369756292187131</v>
+        <v>0.5677840140164222</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.456324191035629</v>
+        <v>1.625146927441351</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.2014498653135926</v>
+        <v>-0.01080418740002588</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1338,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.636142667941031</v>
+        <v>2.700831103700507</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.496671513255194</v>
+        <v>5.595277082665354</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.168226913310013</v>
+        <v>7.037155313114033</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.142653151283286</v>
+        <v>8.032302854664543</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.081725698453717</v>
+        <v>8.265549078735546</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.261143584542527</v>
+        <v>3.189997646354207</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.715013633515378</v>
+        <v>4.673094281130908</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.914355290317294</v>
+        <v>5.890682632896755</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.860743961258419</v>
+        <v>4.033547075700461</v>
       </c>
     </row>
     <row r="25">
@@ -1390,7 +1388,7 @@
         <v>1.117399620521056</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08732408644061394</v>
+        <v>0.08732408644061412</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.8747377953903063</v>
@@ -1399,7 +1397,7 @@
         <v>1.218571458886482</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5984886542416099</v>
+        <v>0.5984886542416097</v>
       </c>
     </row>
     <row r="26">
@@ -1410,31 +1408,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6085111288151717</v>
+        <v>-0.6070762332272808</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.03415350002893768</v>
+        <v>-0.05543080911370387</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.02877725473153992</v>
+        <v>-0.008585446074623377</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2191605266051844</v>
+        <v>0.1831121853022244</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1671434776471532</v>
+        <v>0.2101606206449629</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4539017084924612</v>
+        <v>-0.4608203301117899</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1536418644685427</v>
+        <v>0.1224556048360864</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3278050813450372</v>
+        <v>0.3799659845203065</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08445420303089192</v>
+        <v>-0.0611153117892111</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1443,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.09962398308825</v>
+        <v>2.982581768863955</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6.443587273555421</v>
+        <v>6.024996321641205</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6.517441934542006</v>
+        <v>6.625604828410702</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.887493631811967</v>
+        <v>3.051806715290255</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.851298537102735</v>
+        <v>2.949579437850637</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.256245346104856</v>
+        <v>1.085019851629252</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.226156269509658</v>
+        <v>2.219117181050114</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.783084736634693</v>
+        <v>2.702170774688888</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.724334220235081</v>
+        <v>1.768605339415445</v>
       </c>
     </row>
     <row r="28">
@@ -1519,31 +1517,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.41186718807781</v>
+        <v>0.9170971048450988</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6028201269617605</v>
+        <v>-0.9096844749003167</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.030460152543915</v>
+        <v>-6.295726908192621</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.343055421829388</v>
+        <v>-0.08337068568333154</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7143989804116682</v>
+        <v>0.4150133205644938</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.598336011343381</v>
+        <v>-8.976699927763097</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.395205257444323</v>
+        <v>2.642346477642081</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.9829239302762938</v>
+        <v>0.9794219968595835</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-6.411471898459949</v>
+        <v>-6.356686843011168</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1552,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.38543300596811</v>
+        <v>11.0379805960657</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.08903751809728</v>
+        <v>8.069595134893568</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.4429348429340264</v>
+        <v>-0.4285611546338261</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.50197100667303</v>
+        <v>13.10096010340268</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.72215310406296</v>
+        <v>12.28924621070155</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.8171750229259004</v>
+        <v>-0.9942766894117522</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.902235528394671</v>
+        <v>10.15492044808727</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.485737914872516</v>
+        <v>8.825156847610813</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.422117341053668</v>
+        <v>-1.353101193746051</v>
       </c>
     </row>
     <row r="31">
@@ -1624,31 +1622,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.09807023796067003</v>
+        <v>0.04396896962351257</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.234464677738937</v>
+        <v>-0.2228943449343113</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.05991851682408773</v>
+        <v>-0.03808698572558072</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.03361709740479159</v>
+        <v>0.01585762278260928</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8204832591768152</v>
+        <v>-0.8352652827232654</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3144681023874689</v>
+        <v>0.3523411879905296</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0904452180202779</v>
+        <v>0.08165557232033367</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.8164817758515486</v>
+        <v>-0.8142072641922683</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1657,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>4.355408745267994</v>
+        <v>4.596412472380817</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.324881750538399</v>
+        <v>3.695372660068716</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1307174379615894</v>
+        <v>0.1076793199206999</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.606575338483461</v>
+        <v>2.954108455634544</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.583049865448771</v>
+        <v>2.696490337889573</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1894367642834041</v>
+        <v>-0.2110238745771726</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.3482362766405</v>
+        <v>2.670596083415342</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.044161682824642</v>
+        <v>2.159286017208748</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2902162924451158</v>
+        <v>-0.2787249886080355</v>
       </c>
     </row>
     <row r="34">
@@ -1713,7 +1711,7 @@
         <v>8.434752092432204</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.2043563752823017</v>
+        <v>0.2043563752823011</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.5660887767350881</v>
@@ -1733,31 +1731,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.93154841223649</v>
+        <v>-2.994233924719578</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.3735739072251916</v>
+        <v>0.6905360117873658</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.2672327466095646</v>
+        <v>-0.1405811830892773</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.405342653946883</v>
+        <v>-3.216617751477973</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>4.022557598754492</v>
+        <v>4.331809921902883</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.721229296611385</v>
+        <v>-2.489559960328394</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.523223996950973</v>
+        <v>-2.360148857343542</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>3.008651085833796</v>
+        <v>3.119916275761386</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.7368832633187363</v>
+        <v>-0.6864350925663028</v>
       </c>
     </row>
     <row r="36">
@@ -1768,31 +1766,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.2491593956967032</v>
+        <v>0</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.245060324013788</v>
+        <v>6.185164956291321</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.670302702128653</v>
+        <v>4.589647502403984</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.898771999030996</v>
+        <v>3.028000475400646</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>13.16241341702921</v>
+        <v>13.22109168863888</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.088052382002009</v>
+        <v>3.105340325058807</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.107229993629476</v>
+        <v>1.291064501687743</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.476547586222487</v>
+        <v>8.527732005575267</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.031940958433586</v>
+        <v>3.020823288466316</v>
       </c>
     </row>
     <row r="37">
@@ -1818,7 +1816,7 @@
         <v>2.318295875692932</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05616745303203172</v>
+        <v>0.05616745303203154</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.2214654459434733</v>
@@ -1827,7 +1825,7 @@
         <v>2.250710109617324</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.4835419035613115</v>
+        <v>0.4835419035613113</v>
       </c>
     </row>
     <row r="38">
@@ -1839,28 +1837,28 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>-0.1019138796779687</v>
+        <v>0.04952418464233107</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2690262823087254</v>
+        <v>-0.2283328958531781</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.6447269435615384</v>
+        <v>-0.6426189199885164</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.6229051331691836</v>
+        <v>0.7159293190146405</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5343589662160386</v>
+        <v>-0.482728987153503</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.7084123501878545</v>
+        <v>-0.6847430647878189</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.786620494989054</v>
+        <v>0.7249452143952633</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2047709573086396</v>
+        <v>-0.204334142813658</v>
       </c>
     </row>
     <row r="39">
@@ -1872,28 +1870,28 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>11.19857391096208</v>
+        <v>11.56224372851261</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>8.711858916770682</v>
+        <v>8.729388967704597</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.42465476823554</v>
+        <v>1.371269006033792</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>6.216791367378011</v>
+        <v>6.403076317476579</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.474499728196928</v>
+        <v>1.80199912317178</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6786202113285723</v>
+        <v>0.8758078664619452</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>4.890706987553465</v>
+        <v>4.883896225631867</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.834998546326452</v>
+        <v>1.83013576993737</v>
       </c>
     </row>
     <row r="40">
@@ -1943,31 +1941,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.5381336748936072</v>
+        <v>-0.5308912961101457</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.5979136343704503</v>
+        <v>0.5580632004287845</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.237716172404648</v>
+        <v>1.500271437108867</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.901359115574793</v>
+        <v>-2.907096659958493</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>4.755755781237149</v>
+        <v>4.843046889981522</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.096221864549379</v>
+        <v>1.223837610318298</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.325606839695353</v>
+        <v>-1.230040344216243</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>3.363212330158274</v>
+        <v>3.303906126862636</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.936547785064157</v>
+        <v>1.980113729118665</v>
       </c>
     </row>
     <row r="42">
@@ -1978,31 +1976,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.612569564596535</v>
+        <v>2.590432200071946</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.655593132705872</v>
+        <v>4.420257898919838</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.726898621826236</v>
+        <v>5.698069676106764</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.6577240881231605</v>
+        <v>0.9256569300711501</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>10.55148435417522</v>
+        <v>10.54003122904652</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.160087552509941</v>
+        <v>5.504697146652923</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.157747496409677</v>
+        <v>1.097733956935911</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>7.01506042342723</v>
+        <v>6.935001260876376</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.013781688967763</v>
+        <v>4.843152060781128</v>
       </c>
     </row>
     <row r="43">
@@ -2048,31 +2046,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2749931146495581</v>
+        <v>-0.2569812780032127</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.07346991462058224</v>
+        <v>0.1500649441856264</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4488308695737931</v>
+        <v>0.4740154378716412</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.6642610390092017</v>
+        <v>-0.6527319679287339</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>1.027596772745775</v>
+        <v>0.9603262420705693</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2179498440418596</v>
+        <v>0.2485689801624655</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4164392473744758</v>
+        <v>-0.4127748522003013</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.9607629347752519</v>
+        <v>1.039354748929101</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.5412452776614091</v>
+        <v>0.601525847803288</v>
       </c>
     </row>
     <row r="45">
@@ -2083,31 +2081,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.359188390257988</v>
+        <v>2.274153816790262</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>4.466396023703417</v>
+        <v>3.930282676793983</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>5.139000384436691</v>
+        <v>4.986975255616543</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.29258422032797</v>
+        <v>0.4220904378099135</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>4.342346308733163</v>
+        <v>4.011764204272952</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.04911149386061</v>
+        <v>2.395102086618327</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5662623742247592</v>
+        <v>0.566807815252352</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>3.458002367897334</v>
+        <v>3.648390751537752</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.424147725653218</v>
+        <v>2.407705566353769</v>
       </c>
     </row>
     <row r="46">
@@ -2146,7 +2144,7 @@
         <v>2.710001956146569</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-1.716590281726597</v>
+        <v>-1.716590281726596</v>
       </c>
     </row>
     <row r="47">
@@ -2157,31 +2155,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.493308666048668</v>
+        <v>-3.391905724278743</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.980537858645667</v>
+        <v>-1.831723927541244</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.620075856994371</v>
+        <v>-3.92234818584779</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-4.271958950661486</v>
+        <v>-4.41285395203307</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.228636872375407</v>
+        <v>1.82875924675469</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.618885062879628</v>
+        <v>-3.744561331209561</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-3.326015987968442</v>
+        <v>-3.354732624441579</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.7075180415252036</v>
+        <v>0.6635264706028617</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.176457473009339</v>
+        <v>-3.350187603571857</v>
       </c>
     </row>
     <row r="48">
@@ -2192,31 +2190,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.8546132398256535</v>
+        <v>0.735910505594947</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.359339737409318</v>
+        <v>2.479982851201018</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.04963182676111932</v>
+        <v>-0.1159855817506108</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.0336432126939578</v>
+        <v>0.07133212549577941</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>7.958818978610996</v>
+        <v>7.717501593451659</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.5282805222662696</v>
+        <v>0.3364333022577817</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.2231601347772746</v>
+        <v>-0.2775087189104186</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>4.456169481464725</v>
+        <v>4.387097581761219</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.3465969938775076</v>
+        <v>-0.4022716955429672</v>
       </c>
     </row>
     <row r="49">
@@ -2251,7 +2249,7 @@
         <v>0.538798494265056</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.3412898861443833</v>
+        <v>-0.3412898861443832</v>
       </c>
     </row>
     <row r="50">
@@ -2262,31 +2260,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6433789070576067</v>
+        <v>-0.6166093145787839</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3744340914655634</v>
+        <v>-0.338923971189223</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6747575461465678</v>
+        <v>-0.7007819012689614</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.6103036640733683</v>
+        <v>-0.612883007792789</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.2776627469816277</v>
+        <v>0.239719296128324</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.513385698891753</v>
+        <v>-0.5243342914054656</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.5634767577530037</v>
+        <v>-0.5589075565943186</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1091037140200123</v>
+        <v>0.1157923350181226</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.5217006352903738</v>
+        <v>-0.5448014252607448</v>
       </c>
     </row>
     <row r="51">
@@ -2297,31 +2295,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2952022331149554</v>
+        <v>0.2605834398103771</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.7175915926782809</v>
+        <v>0.7781678578509383</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.03160668749766787</v>
+        <v>0.002053608979634563</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.01527780319892501</v>
+        <v>0.05975840519095611</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.71196037051771</v>
+        <v>1.677385229800558</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1414222470664163</v>
+        <v>0.08603695416334012</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.02820572894927456</v>
+        <v>-0.05020901735549008</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.069028718998234</v>
+        <v>1.063836969979784</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.08191214850586265</v>
+        <v>-0.09845583336474588</v>
       </c>
     </row>
     <row r="52">
@@ -2351,7 +2349,7 @@
         <v>6.439844638545542</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>0.2239365874139788</v>
+        <v>0.2239365874139775</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>0.3255643813082416</v>
@@ -2360,7 +2358,7 @@
         <v>4.145326432242205</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>0.4587173325894429</v>
+        <v>0.4587173325894416</v>
       </c>
     </row>
     <row r="53">
@@ -2371,31 +2369,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.5445034809827685</v>
+        <v>-0.5072651337653249</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.8378823912030767</v>
+        <v>0.8215506143492892</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.1786283690903357</v>
+        <v>-0.3075234245018515</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.7367420265130833</v>
+        <v>-0.7925683417716503</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>5.045980216605399</v>
+        <v>5.018091394983762</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.6948383465770495</v>
+        <v>-0.7752794907054066</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.301845936772112</v>
+        <v>-0.3720695615525995</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>3.2977901535758</v>
+        <v>3.315538336417357</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.1801024535833978</v>
+        <v>-0.1552849054390638</v>
       </c>
     </row>
     <row r="54">
@@ -2406,31 +2404,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.125198831102298</v>
+        <v>1.174640226677911</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.719068378410102</v>
+        <v>2.673064391747525</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.557709117980042</v>
+        <v>1.510892738190347</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.397978241793708</v>
+        <v>1.326420166755643</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>7.730892199456756</v>
+        <v>7.724055505869273</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.25293669147138</v>
+        <v>1.138762504562614</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.002843280249343</v>
+        <v>0.9843989167078251</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>4.875319390145313</v>
+        <v>4.967597714158741</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>1.118122643859485</v>
+        <v>1.122158517493586</v>
       </c>
     </row>
     <row r="55">
@@ -2456,7 +2454,7 @@
         <v>1.404379461075024</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.04883533091233899</v>
+        <v>0.04883533091233869</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.08812964443907916</v>
@@ -2465,7 +2463,7 @@
         <v>1.122131797985402</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.1241738892218521</v>
+        <v>0.1241738892218518</v>
       </c>
     </row>
     <row r="56">
@@ -2476,31 +2474,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1754298117269249</v>
+        <v>-0.1598136428050383</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.2427559845169655</v>
+        <v>0.2513603549885375</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.0587804672053685</v>
+        <v>-0.1009974059301566</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.1464221645009168</v>
+        <v>-0.1530526859361709</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.9586252732574376</v>
+        <v>0.9377436041475495</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.1355086498911828</v>
+        <v>-0.1475146574880438</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.07573100607410137</v>
+        <v>-0.09325603739309407</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.8091715599091197</v>
+        <v>0.8078733445737201</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.04536009932744883</v>
+        <v>-0.04744896238022214</v>
       </c>
     </row>
     <row r="57">
@@ -2511,31 +2509,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4605201302229215</v>
+        <v>0.512412896483522</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.112977370502521</v>
+        <v>1.121538656825848</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.6615614141437732</v>
+        <v>0.6099625413966759</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.3336973488029777</v>
+        <v>0.3156747253382221</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>1.886547868400277</v>
+        <v>1.893541277352041</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.3151961834632187</v>
+        <v>0.2839029186532638</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.3009341614227947</v>
+        <v>0.290992171414341</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>1.43012229543678</v>
+        <v>1.471144686479782</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.3342659829077765</v>
+        <v>0.3255567619020693</v>
       </c>
     </row>
     <row r="58">
